--- a/Fall 2025 Sections.xlsx
+++ b/Fall 2025 Sections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/craigbakke/Projects/Python/schedule-maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E023559C-DDF1-F04C-85EB-0AC053014311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7419DF-763B-1140-9D43-06C5F9664820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>Course Title</t>
   </si>
@@ -93,13 +93,70 @@
   </si>
   <si>
     <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>Instructor</t>
+  </si>
+  <si>
+    <t>RMP</t>
+  </si>
+  <si>
+    <t>Igor Minevich</t>
+  </si>
+  <si>
+    <t>Steven Morrow</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>ME Group</t>
+  </si>
+  <si>
+    <t>Boston Insights</t>
+  </si>
+  <si>
+    <t>Boston History</t>
+  </si>
+  <si>
+    <t>Urban History</t>
+  </si>
+  <si>
+    <t>History of Design</t>
+  </si>
+  <si>
+    <t>Principles of Econ</t>
+  </si>
+  <si>
+    <t>Microeconomics</t>
+  </si>
+  <si>
+    <t>Prob and Stats</t>
+  </si>
+  <si>
+    <t>Semere G.</t>
+  </si>
+  <si>
+    <t>Ying Wang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,13 +170,68 @@
       <name val="Courier New"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -183,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -195,11 +307,41 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -584,26 +726,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11:R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="1"/>
+    <col min="16" max="16" width="16.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" style="15" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="20" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -649,24 +795,36 @@
       <c r="O1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="b">
+      <c r="C2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="7">
@@ -696,24 +854,31 @@
       <c r="O2" s="8">
         <v>945</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" s="11"/>
+      <c r="R2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
+      <c r="C3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="7">
@@ -743,24 +908,31 @@
       <c r="O3" s="8">
         <v>1145</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3" s="11"/>
+      <c r="R3" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
+      <c r="C4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="7">
@@ -790,24 +962,31 @@
       <c r="O4" s="8">
         <v>1645</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4" s="11"/>
+      <c r="R4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
+      <c r="C5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="b">
         <v>0</v>
       </c>
       <c r="G5" s="7">
@@ -837,24 +1016,31 @@
       <c r="O5" s="8">
         <v>1645</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5" s="11"/>
+      <c r="R5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="b">
+      <c r="C6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="7">
@@ -884,24 +1070,31 @@
       <c r="O6" s="8">
         <v>945</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6" s="11"/>
+      <c r="R6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="b">
+      <c r="C7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="7">
@@ -927,24 +1120,36 @@
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="b">
+      <c r="C8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="7">
@@ -970,24 +1175,36 @@
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="b">
+      <c r="C9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12" t="b">
         <v>1</v>
       </c>
       <c r="G9" s="7">
@@ -1013,24 +1230,36 @@
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="R9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="b">
+      <c r="C10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="7">
@@ -1056,31 +1285,43 @@
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>4.8</v>
+      </c>
+      <c r="R10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S10" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12" t="b">
         <v>0</v>
       </c>
       <c r="G11" s="7">
-        <v>1000</v>
+        <v>1715</v>
       </c>
       <c r="H11" s="8">
-        <v>1145</v>
+        <v>1825</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>0</v>
@@ -1099,31 +1340,38 @@
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="11"/>
+      <c r="R11" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="b">
+      <c r="C12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12" t="b">
         <v>0</v>
       </c>
       <c r="G12" s="7">
-        <v>800</v>
+        <v>930</v>
       </c>
       <c r="H12" s="8">
-        <v>915</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>0</v>
@@ -1146,31 +1394,37 @@
       <c r="O12" s="2">
         <v>1145</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="R12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S12" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="b">
+      <c r="C13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12" t="b">
         <v>0</v>
       </c>
       <c r="G13" s="7">
-        <v>930</v>
+        <v>1530</v>
       </c>
       <c r="H13" s="8">
-        <v>1045</v>
+        <v>1645</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>0</v>
@@ -1188,176 +1442,1279 @@
         <v>1</v>
       </c>
       <c r="N13" s="3">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="O13" s="2">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1545</v>
+      </c>
+      <c r="R13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12" t="b">
         <v>0</v>
       </c>
       <c r="G14" s="7">
+        <v>1100</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1215</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1145</v>
+      </c>
+      <c r="R14" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>800</v>
+      </c>
+      <c r="H15" s="8">
+        <v>915</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>800</v>
+      </c>
+      <c r="O15" s="2">
+        <v>945</v>
+      </c>
+      <c r="R15" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>930</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1045</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1145</v>
+      </c>
+      <c r="R16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>1400</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1515</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1445</v>
+      </c>
+      <c r="R17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S17" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <v>1530</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H18" s="8">
         <v>1645</v>
       </c>
-      <c r="I14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="I18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1645</v>
+      </c>
+      <c r="R18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S18" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>800</v>
+      </c>
+      <c r="H19" s="8">
+        <v>915</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>800</v>
+      </c>
+      <c r="O19" s="2">
+        <v>945</v>
+      </c>
+      <c r="R19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1145</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="11"/>
+      <c r="R20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
         <v>1300</v>
       </c>
-      <c r="O14" s="2">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
+      <c r="H21" s="8">
+        <v>1445</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1445</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1145</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1145</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1300</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1445</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1645</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>800</v>
+      </c>
+      <c r="H27" s="8">
+        <v>945</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S27" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1145</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R28" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S28" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1715</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1900</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R29" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S29" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1645</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1145</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S31" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1645</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S32" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>800</v>
+      </c>
+      <c r="H33" s="8">
+        <v>945</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R33" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D34" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>930</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1040</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="R34" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
         <v>1100</v>
       </c>
-      <c r="H15" s="8">
-        <v>1215</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O15" s="2">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1230</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1345</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O16" s="2">
-        <v>1445</v>
+      <c r="H35" s="8">
+        <v>1210</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="15">
+        <v>3.4</v>
+      </c>
+      <c r="R35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S35" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1400</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1510</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q36" s="15">
+        <v>5</v>
+      </c>
+      <c r="R36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1530</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1640</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q37" s="15">
+        <v>5</v>
+      </c>
+      <c r="R37" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D38" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>1715</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1825</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="R38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S38" s="20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Operating Systems">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Operating Systems">
       <formula>NOT(ISERROR(SEARCH("Operating Systems",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Algorithms">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="Algorithms">
       <formula>NOT(ISERROR(SEARCH("Algorithms",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="CSAS">
+    <cfRule type="containsText" dxfId="4" priority="10" operator="containsText" text="CSAS">
       <formula>NOT(ISERROR(SEARCH("CSAS",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Linear Algebra">
+    <cfRule type="containsText" dxfId="3" priority="11" operator="containsText" text="Linear Algebra">
       <formula>NOT(ISERROR(SEARCH("Linear Algebra",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="10" operator="containsText" text="Network Programming">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="containsText" text="Network Programming">
       <formula>NOT(ISERROR(SEARCH("Network Programming",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1048576 I1:M1048576">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1366,8 +2723,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1048576 N1:O1048576">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G1:H1048576 N1:P1048576">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1375,7 +2732,7 @@
         <color theme="5" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1387,7 +2744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1398,6 +2755,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFC000"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
